--- a/JobAlert/JobAlert_List.xlsx
+++ b/JobAlert/JobAlert_List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learn\Projects\Focux\Focux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learn\Projects\Focux\Focux\JobAlert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64478975-275D-41E8-9312-83567028DF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42887188-C25F-4B6B-B9F9-A819632C6CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Index</t>
   </si>
@@ -108,6 +108,21 @@
   </si>
   <si>
     <t>id="JOBRESULTLIST--jobList"</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>ZF</t>
+  </si>
+  <si>
+    <t>https://jobs.zf.com/search/?createNewAlert=false&amp;q=&amp;locationsearch=&amp;optionsFacetsDD_facility=&amp;optionsFacetsDD_shifttype=Working+student&amp;optionsFacetsDD_country=DE&amp;optionsFacetsDD_customfield4=</t>
+  </si>
+  <si>
+    <t>class="jobTitle hidden-phone"</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -152,12 +167,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -493,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,7 +525,7 @@
     <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,8 +550,11 @@
       <c r="H1" t="s">
         <v>21</v>
       </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -558,7 +577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -581,7 +600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -598,7 +617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -613,6 +632,26 @@
       </c>
       <c r="H5">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -621,6 +660,7 @@
     <hyperlink ref="C5" r:id="rId2" location="/SEARCH/SIMPLE/" xr:uid="{EF58474E-0777-40D2-9489-DCB1B0F51131}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{632E38C5-EA31-4409-94BA-AD6FB102AB52}"/>
     <hyperlink ref="C3" r:id="rId4" xr:uid="{8D2150E3-0FF3-40A4-B80C-9EBD646D1831}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{BC46117F-FD1C-49EB-8624-6FF9AF0C143A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
